--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nearone\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD7CE7-DCA1-4E51-ACDC-A4C5E623F6A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8325" xr2:uid="{AD75C39A-8B7D-48C8-8FEB-3C467D6F621C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tanggal</t>
   </si>
@@ -50,49 +45,37 @@
     <t>Jumlah</t>
   </si>
   <si>
+    <t>Zakat Fitrah</t>
+  </si>
+  <si>
     <t>Zakat Maal</t>
   </si>
   <si>
-    <t>Baznas</t>
+    <t>Masjid Al-Hidayah</t>
+  </si>
+  <si>
+    <t>Moch Nirwan Firdaus</t>
+  </si>
+  <si>
+    <t>Masjid Raya An-nur</t>
+  </si>
+  <si>
+    <t>Abdulloh Habibie</t>
+  </si>
+  <si>
+    <t>Fuad hadi Nugroho</t>
   </si>
   <si>
     <t>Infaq</t>
   </si>
   <si>
-    <t>Fuad</t>
-  </si>
-  <si>
-    <t>085784541333</t>
-  </si>
-  <si>
-    <t>19-01-2019</t>
-  </si>
-  <si>
-    <t>Habibi</t>
-  </si>
-  <si>
-    <t>22-01-2019</t>
-  </si>
-  <si>
-    <t>Nirwan</t>
-  </si>
-  <si>
-    <t>01-01-2019</t>
-  </si>
-  <si>
-    <t>02928292828</t>
-  </si>
-  <si>
-    <t>08927827938</t>
-  </si>
-  <si>
-    <t>Panti Asuhan Dakudi</t>
+    <t>Ponpes Al-Ikhlas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -153,10 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,19 +450,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005163CF-E036-4CA4-8CE6-CAAAA6D432CB}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -498,7 +479,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -506,108 +487,107 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
+      <c r="A2" s="4">
+        <v>43143</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1">
+        <v>12345566</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43497</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>67867867</v>
+      </c>
+      <c r="F3" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43499</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
+      <c r="E4" s="1">
+        <v>8797987979</v>
       </c>
       <c r="F4" s="1">
-        <v>50000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
